--- a/biology/Médecine/Système_d'information_de_radiologie/Système_d'information_de_radiologie.xlsx
+++ b/biology/Médecine/Système_d'information_de_radiologie/Système_d'information_de_radiologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_d%27information_de_radiologie</t>
+          <t>Système_d'information_de_radiologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un système d'information radiologique (SIR)[1] ou RIS (Radiology Information System) en anglais est le système de base pour la gestion des services d'imagerie médicale. Les principales fonctions d'un SIR peuvent inclure la gestion des prises de rendez-vous, de l'accueil, des protocoles d'acquisition, des cotations, des comptes-rendus, de la facturation, des statistiques, des vacations du personnel, de la matériovigilance, de la radioprotection ainsi que des dispositifs de partage des informations entre les radiologues, les prescripteurs et les patients. Le SIR fait partie des SIH (systèmes d'information hospitalier). Ils s'intègrent avec les PACS (picture archiving and communication system). Le SIR est essentiel à l'efficacité des flux de travail de la radiologie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un système d'information radiologique (SIR) ou RIS (Radiology Information System) en anglais est le système de base pour la gestion des services d'imagerie médicale. Les principales fonctions d'un SIR peuvent inclure la gestion des prises de rendez-vous, de l'accueil, des protocoles d'acquisition, des cotations, des comptes-rendus, de la facturation, des statistiques, des vacations du personnel, de la matériovigilance, de la radioprotection ainsi que des dispositifs de partage des informations entre les radiologues, les prescripteurs et les patients. Le SIR fait partie des SIH (systèmes d'information hospitalier). Ils s'intègrent avec les PACS (picture archiving and communication system). Le SIR est essentiel à l'efficacité des flux de travail de la radiologie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_d%27information_de_radiologie</t>
+          <t>Système_d'information_de_radiologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Fonctions de base</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les systèmes d'information de radiologie incluent le plus souvent les fonctions suivantes :
 L'accueil : l'enregistrement des patients et de la planification
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_d%27information_de_radiologie</t>
+          <t>Système_d'information_de_radiologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Fonctions complémentaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En plus, un SIR comporte les fonctions suivantes :
 La prise des rendez-vous et leur suivi avec les patients
